--- a/alalal.xlsx
+++ b/alalal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmxlm\OneDrive\Desktop\Researchdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CAFA0B-EEE7-4525-AAE1-CCDB8EC9AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9563FA-7410-4C75-BE53-A6C0195A2DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3626" yWindow="1629" windowWidth="15685" windowHeight="10551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,23 +389,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L743"/>
+  <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.69140625" customWidth="1"/>
-    <col min="4" max="4" width="10.3828125" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="16.07421875" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" customWidth="1"/>
     <col min="6" max="6" width="7.15234375" customWidth="1"/>
     <col min="7" max="7" width="8.4609375" customWidth="1"/>
     <col min="8" max="8" width="7.53515625" customWidth="1"/>
     <col min="9" max="9" width="8.84375" customWidth="1"/>
     <col min="10" max="10" width="6.765625" customWidth="1"/>
-    <col min="11" max="11" width="27.3046875" customWidth="1"/>
+    <col min="11" max="11" width="14.07421875" customWidth="1"/>
     <col min="12" max="12" width="11.84375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,10 +478,10 @@
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -517,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -552,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L4">
         <v>0.2857142857142857</v>
@@ -590,10 +592,10 @@
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -628,10 +630,10 @@
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -666,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L7">
         <v>0.2857142857142857</v>
@@ -704,10 +706,10 @@
         <v>0.1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,10 +744,10 @@
         <v>0.2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -780,10 +782,10 @@
         <v>0.1</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -818,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L11">
         <v>0.14285714285714285</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L12">
         <v>0.14285714285714285</v>
@@ -932,10 +934,10 @@
         <v>0.4</v>
       </c>
       <c r="J14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -970,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>0.14285714285714285</v>
@@ -998,12 +1000,6 @@
       <c r="G16">
         <v>15.6</v>
       </c>
-      <c r="J16">
-        <v>0.6</v>
-      </c>
-      <c r="K16">
-        <v>2.4</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
@@ -1030,12 +1026,6 @@
       <c r="H17">
         <v>7.2</v>
       </c>
-      <c r="J17">
-        <v>0.5</v>
-      </c>
-      <c r="K17">
-        <v>1.8</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
@@ -1062,12 +1052,6 @@
       <c r="H18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J18">
-        <v>0.1</v>
-      </c>
-      <c r="K18">
-        <v>2.4</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
@@ -1101,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1139,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1177,10 +1161,10 @@
         <v>0.1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1215,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K22">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1253,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1291,10 +1275,10 @@
         <v>0.1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1329,10 +1313,10 @@
         <v>0.1</v>
       </c>
       <c r="J25">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K25">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1370,7 +1354,7 @@
         <v>0.6</v>
       </c>
       <c r="K26">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1405,10 +1389,10 @@
         <v>0.1</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L27">
         <v>0.14285714285714285</v>
@@ -1443,10 +1427,10 @@
         <v>0.1</v>
       </c>
       <c r="J28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1481,10 +1465,10 @@
         <v>0.1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1519,10 +1503,10 @@
         <v>0.1</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1557,10 +1541,10 @@
         <v>0.1</v>
       </c>
       <c r="J31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1595,10 +1579,10 @@
         <v>0.1</v>
       </c>
       <c r="J32">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K32">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1633,10 +1617,10 @@
         <v>0.1</v>
       </c>
       <c r="J33">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1671,10 +1655,10 @@
         <v>0.1</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1747,10 +1731,10 @@
         <v>0.2</v>
       </c>
       <c r="J36">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -1785,10 +1769,10 @@
         <v>0.1</v>
       </c>
       <c r="J37">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
         <v>0.14285714285714285</v>
@@ -1823,10 +1807,10 @@
         <v>0.1</v>
       </c>
       <c r="J38">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="K38">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -1861,10 +1845,10 @@
         <v>0.1</v>
       </c>
       <c r="J39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -1899,10 +1883,10 @@
         <v>0.1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -1937,10 +1921,10 @@
         <v>0.1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -1975,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K42">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2013,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>0.14285714285714285</v>
@@ -2051,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2089,10 +2073,10 @@
         <v>0.2</v>
       </c>
       <c r="J45">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
         <v>0.14285714285714285</v>
@@ -2127,10 +2111,10 @@
         <v>0.1</v>
       </c>
       <c r="J46">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2165,10 +2149,10 @@
         <v>0.1</v>
       </c>
       <c r="J47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K47">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2203,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K48">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2241,10 +2225,10 @@
         <v>0.1</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="K49">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L49">
         <v>0.14285714285714285</v>
@@ -2279,10 +2263,10 @@
         <v>0.1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2317,10 +2301,10 @@
         <v>0.2</v>
       </c>
       <c r="J51">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2355,10 +2339,10 @@
         <v>0.1</v>
       </c>
       <c r="J52">
+        <v>0.7</v>
+      </c>
+      <c r="K52">
         <v>1.3</v>
-      </c>
-      <c r="K52">
-        <v>1.1000000000000001</v>
       </c>
       <c r="L52">
         <v>0.14285714285714285</v>
@@ -2396,7 +2380,7 @@
         <v>0.1</v>
       </c>
       <c r="K53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2431,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
         <v>0.2857142857142857</v>
@@ -2469,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K55">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -2507,10 +2491,10 @@
         <v>0.2</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K56">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -2545,10 +2529,10 @@
         <v>0.1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -2583,10 +2567,10 @@
         <v>0.1</v>
       </c>
       <c r="J58">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K58">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L58">
         <v>0.14285714285714285</v>
@@ -2621,10 +2605,10 @@
         <v>0.1</v>
       </c>
       <c r="J59">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>0.14285714285714285</v>
@@ -2659,10 +2643,10 @@
         <v>0.1</v>
       </c>
       <c r="J60">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2700,7 +2684,7 @@
         <v>1.2</v>
       </c>
       <c r="K61">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -2735,10 +2719,10 @@
         <v>0.1</v>
       </c>
       <c r="J62">
-        <v>0.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K62">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -2773,10 +2757,10 @@
         <v>0.1</v>
       </c>
       <c r="J63">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="K63">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -2811,7 +2795,7 @@
         <v>0.2</v>
       </c>
       <c r="J64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -2849,10 +2833,10 @@
         <v>0.2</v>
       </c>
       <c r="J65">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -2887,10 +2871,10 @@
         <v>0.1</v>
       </c>
       <c r="J66">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K66">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="L66">
         <v>0.14285714285714285</v>
@@ -2925,10 +2909,10 @@
         <v>0.1</v>
       </c>
       <c r="J67">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="K67">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -2963,10 +2947,10 @@
         <v>0.1</v>
       </c>
       <c r="J68">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3001,10 +2985,10 @@
         <v>0.1</v>
       </c>
       <c r="J69">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K69">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3039,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0.14285714285714285</v>
@@ -3076,6 +3060,12 @@
       <c r="I71">
         <v>0.1</v>
       </c>
+      <c r="J71">
+        <v>0.2</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="L71">
         <v>0</v>
       </c>
@@ -3108,6 +3098,12 @@
       <c r="I72">
         <v>0.1</v>
       </c>
+      <c r="J72">
+        <v>0.8</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
       <c r="L72">
         <v>0.14285714285714285</v>
       </c>
@@ -3141,10 +3137,10 @@
         <v>0.1</v>
       </c>
       <c r="J73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3179,10 +3175,10 @@
         <v>0.1</v>
       </c>
       <c r="J74">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3217,10 +3213,10 @@
         <v>0.1</v>
       </c>
       <c r="J75">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K75">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -3258,7 +3254,7 @@
         <v>0.1</v>
       </c>
       <c r="K76">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3293,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K77">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="L77">
         <v>0.14285714285714285</v>
@@ -3331,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="K78">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -3362,12 +3358,6 @@
       <c r="H79">
         <v>4</v>
       </c>
-      <c r="J79">
-        <v>0.9</v>
-      </c>
-      <c r="K79">
-        <v>1.7</v>
-      </c>
       <c r="L79">
         <v>0</v>
       </c>
@@ -3394,12 +3384,6 @@
       <c r="H80">
         <v>6.2</v>
       </c>
-      <c r="J80">
-        <v>0.3</v>
-      </c>
-      <c r="K80">
-        <v>2.7</v>
-      </c>
       <c r="L80">
         <v>0</v>
       </c>
@@ -3433,10 +3417,10 @@
         <v>0.2</v>
       </c>
       <c r="J81">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -3471,10 +3455,10 @@
         <v>0.1</v>
       </c>
       <c r="J82">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="K82">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -3509,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -3550,7 +3534,7 @@
         <v>0.9</v>
       </c>
       <c r="K84">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L84">
         <v>0.14285714285714285</v>
@@ -3585,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K85">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -3623,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="K86">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -3661,10 +3645,10 @@
         <v>0.2</v>
       </c>
       <c r="J87">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -3699,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="K88">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -3737,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K89">
         <v>1.8</v>
@@ -3775,10 +3759,10 @@
         <v>0.1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -3813,10 +3797,10 @@
         <v>0.1</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -3851,10 +3835,10 @@
         <v>0.2</v>
       </c>
       <c r="J92">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="K92">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -3889,10 +3873,10 @@
         <v>0.1</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -3927,10 +3911,10 @@
         <v>0.2</v>
       </c>
       <c r="J94">
-        <v>0.1</v>
+        <v>4.8</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -3965,10 +3949,10 @@
         <v>0.1</v>
       </c>
       <c r="J95">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -3997,10 +3981,10 @@
         <v>0.2</v>
       </c>
       <c r="J96">
-        <v>0.1</v>
+        <v>8.1</v>
       </c>
       <c r="K96">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4035,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -4073,10 +4057,10 @@
         <v>0.1</v>
       </c>
       <c r="J98">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K98">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -4111,10 +4095,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="K99">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -4149,10 +4133,10 @@
         <v>0.2</v>
       </c>
       <c r="J100">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="K100">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -4187,10 +4171,10 @@
         <v>0.2</v>
       </c>
       <c r="J101">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="K101">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4225,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="K102">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="L102">
         <v>0.14285714285714285</v>
@@ -4263,10 +4247,10 @@
         <v>0.1</v>
       </c>
       <c r="J103">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="K103">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L103">
         <v>0.14285714285714285</v>
@@ -4301,10 +4285,10 @@
         <v>0.1</v>
       </c>
       <c r="J104">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="K104">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -4339,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K105">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -4377,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -4415,10 +4399,10 @@
         <v>0.1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -4453,10 +4437,10 @@
         <v>0.1</v>
       </c>
       <c r="J108">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="K108">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4491,10 +4475,10 @@
         <v>0.2</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="K109">
-        <v>2.2999999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4529,10 +4513,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K110">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L110">
         <v>0.14285714285714285</v>
@@ -4567,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K111">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4605,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4643,10 +4627,10 @@
         <v>0.1</v>
       </c>
       <c r="J113">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L113">
         <v>0.14285714285714285</v>
@@ -4681,10 +4665,10 @@
         <v>0.1</v>
       </c>
       <c r="J114">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K114">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -4719,7 +4703,7 @@
         <v>0.1</v>
       </c>
       <c r="J115">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="K115">
         <v>0.8</v>
@@ -4757,10 +4741,10 @@
         <v>0.3</v>
       </c>
       <c r="J116">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="K116">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L116">
         <v>0.14285714285714285</v>
@@ -4795,10 +4779,10 @@
         <v>0.1</v>
       </c>
       <c r="J117">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="K117">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="L117">
         <v>0.14285714285714285</v>
@@ -4832,8 +4816,11 @@
       <c r="I118">
         <v>0</v>
       </c>
+      <c r="J118">
+        <v>0.4</v>
+      </c>
       <c r="K118">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
         <v>0.2857142857142857</v>
@@ -4868,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K119">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L119">
         <v>0.42857142857142855</v>
@@ -4906,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L120">
         <v>0.8571428571428571</v>
@@ -4944,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
         <v>0.8571428571428571</v>
@@ -4982,10 +4969,10 @@
         <v>0.1</v>
       </c>
       <c r="J122">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K122">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L122">
         <v>0.2857142857142857</v>
@@ -5020,10 +5007,10 @@
         <v>0.1</v>
       </c>
       <c r="J123">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="K123">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="L123">
         <v>0.5714285714285714</v>
@@ -5058,10 +5045,10 @@
         <v>0.2</v>
       </c>
       <c r="J124">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="K124">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="L124">
         <v>0.2857142857142857</v>
@@ -5096,10 +5083,10 @@
         <v>0.1</v>
       </c>
       <c r="J125">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="L125">
         <v>0.7142857142857143</v>
@@ -5134,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="K126">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -5169,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>0.14285714285714285</v>
@@ -5204,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
         <v>0.5714285714285714</v>
@@ -5239,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L129">
         <v>0.14285714285714285</v>
@@ -5274,10 +5261,10 @@
         <v>0.1</v>
       </c>
       <c r="J130">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="K130">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="L130">
         <v>0.2857142857142857</v>
@@ -5312,10 +5299,10 @@
         <v>0.2</v>
       </c>
       <c r="J131">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="K131">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L131">
         <v>0.8571428571428571</v>
@@ -5350,10 +5337,10 @@
         <v>0.2</v>
       </c>
       <c r="J132">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="L132">
         <v>0.14285714285714285</v>
@@ -5391,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
         <v>1.1428571428571428</v>
@@ -5426,10 +5413,10 @@
         <v>0.1</v>
       </c>
       <c r="J134">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K134">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
         <v>1.7142857142857142</v>
@@ -5457,11 +5444,8 @@
       <c r="I135">
         <v>0.2</v>
       </c>
-      <c r="J135">
-        <v>1.2</v>
-      </c>
       <c r="K135">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L135">
         <v>0.7142857142857143</v>
@@ -5496,10 +5480,10 @@
         <v>0.1</v>
       </c>
       <c r="J136">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K136">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L136">
         <v>0.7142857142857143</v>
@@ -5534,10 +5518,10 @@
         <v>0.1</v>
       </c>
       <c r="J137">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="K137">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -5575,7 +5559,7 @@
         <v>0.2</v>
       </c>
       <c r="K138">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
         <v>0.14285714285714285</v>
@@ -5610,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K139">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="L139">
         <v>0.8571428571428571</v>
@@ -5648,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -5686,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
         <v>1.1428571428571428</v>
@@ -5727,7 +5711,7 @@
         <v>0.2</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
         <v>1.2857142857142858</v>
@@ -5765,7 +5749,7 @@
         <v>0.1</v>
       </c>
       <c r="K143">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="L143">
         <v>0.8571428571428571</v>
@@ -5803,7 +5787,7 @@
         <v>0.1</v>
       </c>
       <c r="K144">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
         <v>1.1428571428571428</v>
@@ -5838,10 +5822,10 @@
         <v>0.1</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K145">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
         <v>4</v>
@@ -5879,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L146">
         <v>4</v>
@@ -5914,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L147">
         <v>1.8571428571428572</v>
@@ -5952,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L148">
         <v>3</v>
@@ -5987,10 +5971,10 @@
         <v>2.8</v>
       </c>
       <c r="J149">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L149">
         <v>4</v>
@@ -6024,8 +6008,11 @@
       <c r="I150">
         <v>0.1</v>
       </c>
+      <c r="J150">
+        <v>0.1</v>
+      </c>
       <c r="K150">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="L150">
         <v>2.8571428571428572</v>
@@ -6060,10 +6047,10 @@
         <v>0.1</v>
       </c>
       <c r="J151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L151">
         <v>3.2857142857142856</v>
@@ -6098,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L152">
         <v>8.5714285714285712</v>
@@ -6139,7 +6126,7 @@
         <v>0.4</v>
       </c>
       <c r="K153">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
         <v>4.7142857142857144</v>
@@ -6174,10 +6161,10 @@
         <v>0.2</v>
       </c>
       <c r="J154">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K154">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L154">
         <v>5.4285714285714288</v>
@@ -6212,10 +6199,10 @@
         <v>0.1</v>
       </c>
       <c r="J155">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L155">
         <v>9.4285714285714288</v>
@@ -6253,7 +6240,7 @@
         <v>0.6</v>
       </c>
       <c r="K156">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
         <v>6.9999999999999991</v>
@@ -6288,10 +6275,10 @@
         <v>0.1</v>
       </c>
       <c r="J157">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L157">
         <v>6.7142857142857144</v>
@@ -6320,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K158">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L158">
         <v>6.2857142857142865</v>
@@ -6352,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L159">
         <v>4.2857142857142856</v>
@@ -6390,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K160">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="L160">
         <v>6.8571428571428568</v>
@@ -6428,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K161">
         <v>2.2000000000000002</v>
@@ -6466,10 +6453,10 @@
         <v>0.1</v>
       </c>
       <c r="J162">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L162">
         <v>5</v>
@@ -6504,10 +6491,10 @@
         <v>0.1</v>
       </c>
       <c r="J163">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K163">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
         <v>4.7142857142857144</v>
@@ -6542,10 +6529,10 @@
         <v>0.2</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K164">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L164">
         <v>6</v>
@@ -6574,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K165">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="L165">
         <v>5.8571428571428568</v>
@@ -6606,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K166">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L166">
         <v>7.5714285714285712</v>
@@ -6644,10 +6631,10 @@
         <v>0.1</v>
       </c>
       <c r="J167">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K167">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L167">
         <v>5.2857142857142856</v>
@@ -6682,10 +6669,10 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K168">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
         <v>6.2857142857142865</v>
@@ -6723,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L169">
         <v>3.7142857142857144</v>
@@ -6761,7 +6748,7 @@
         <v>0.2</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L170">
         <v>5.5714285714285712</v>
@@ -6796,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K171">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="L171">
         <v>7.2857142857142865</v>
@@ -6834,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K172">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L172">
         <v>6.7142857142857144</v>
@@ -6872,10 +6859,10 @@
         <v>0.2</v>
       </c>
       <c r="J173">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L173">
         <v>7.7142857142857144</v>
@@ -6910,10 +6897,10 @@
         <v>0.1</v>
       </c>
       <c r="J174">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L174">
         <v>8</v>
@@ -6948,10 +6935,10 @@
         <v>0.1</v>
       </c>
       <c r="J175">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K175">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L175">
         <v>9.8571428571428559</v>
@@ -6986,10 +6973,10 @@
         <v>0.1</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K176">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="L176">
         <v>12.714285714285714</v>
@@ -7024,10 +7011,10 @@
         <v>0.1</v>
       </c>
       <c r="J177">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
         <v>8.7142857142857135</v>
@@ -7062,10 +7049,10 @@
         <v>0.1</v>
       </c>
       <c r="J178">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L178">
         <v>9.7142857142857135</v>
@@ -7100,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
         <v>11.285714285714286</v>
@@ -7138,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K180">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L180">
         <v>15.428571428571429</v>
@@ -7176,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K181">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
         <v>12</v>
@@ -7214,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L182">
         <v>13.857142857142858</v>
@@ -7252,10 +7239,10 @@
         <v>0.2</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K183">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>13.142857142857142</v>
@@ -7293,7 +7280,7 @@
         <v>0.3</v>
       </c>
       <c r="K184">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
         <v>15.571428571428571</v>
@@ -7328,10 +7315,10 @@
         <v>0.1</v>
       </c>
       <c r="J185">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K185">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L185">
         <v>17.857142857142858</v>
@@ -7366,10 +7353,10 @@
         <v>0.1</v>
       </c>
       <c r="J186">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K186">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="L186">
         <v>19.571428571428573</v>
@@ -7404,10 +7391,10 @@
         <v>0.1</v>
       </c>
       <c r="J187">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L187">
         <v>20.857142857142858</v>
@@ -7429,12 +7416,6 @@
       <c r="E188">
         <v>52</v>
       </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
-        <v>3.1</v>
-      </c>
       <c r="L188">
         <v>20.428571428571427</v>
       </c>
@@ -7471,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L189">
         <v>21</v>
@@ -7509,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L190">
         <v>18.714285714285712</v>
@@ -7544,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K191">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L191">
         <v>19</v>
@@ -7582,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K192">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="L192">
         <v>24.142857142857142</v>
@@ -7620,10 +7601,10 @@
         <v>0.2</v>
       </c>
       <c r="J193">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K193">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="L193">
         <v>25.999999999999996</v>
@@ -7658,10 +7639,10 @@
         <v>0.1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K194">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="L194">
         <v>30.571428571428573</v>
@@ -7699,7 +7680,7 @@
         <v>0.1</v>
       </c>
       <c r="K195">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L195">
         <v>26.142857142857142</v>
@@ -7734,10 +7715,10 @@
         <v>0.1</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K196">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L196">
         <v>25.857142857142858</v>
@@ -7772,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="L197">
         <v>20.142857142857142</v>
@@ -7810,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L198">
         <v>23.285714285714285</v>
@@ -7848,10 +7829,10 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K199">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
         <v>22.714285714285715</v>
@@ -7886,10 +7867,10 @@
         <v>0.1</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K200">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
         <v>24.857142857142858</v>
@@ -7924,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K201">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L201">
         <v>19.857142857142858</v>
@@ -7962,10 +7943,10 @@
         <v>0.3</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L202">
         <v>19.285714285714285</v>
@@ -7999,8 +7980,11 @@
       <c r="I203">
         <v>0.2</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
       <c r="K203">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L203">
         <v>22.571428571428573</v>
@@ -8038,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L204">
         <v>16.142857142857142</v>
@@ -8073,10 +8057,10 @@
         <v>0.1</v>
       </c>
       <c r="J205">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K205">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L205">
         <v>12.857142857142858</v>
@@ -8114,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L206">
         <v>13.857142857142858</v>
@@ -8149,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K207">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
         <v>19.857142857142858</v>
@@ -8187,10 +8171,10 @@
         <v>0.1</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="L208">
         <v>16.714285714285712</v>
@@ -8225,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L209">
         <v>15.714285714285714</v>
@@ -8266,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L210">
         <v>15.428571428571429</v>
@@ -8304,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="K211">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L211">
         <v>13.714285714285714</v>
@@ -8339,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K212">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L212">
         <v>10.142857142857142</v>
@@ -8377,7 +8361,7 @@
         <v>0.2</v>
       </c>
       <c r="J213">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K213">
         <v>2.2999999999999998</v>
@@ -8415,10 +8399,10 @@
         <v>0.2</v>
       </c>
       <c r="J214">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L214">
         <v>10.428571428571429</v>
@@ -8453,10 +8437,10 @@
         <v>0.2</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L215">
         <v>10</v>
@@ -8491,10 +8475,10 @@
         <v>0.1</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L216">
         <v>6.8571428571428568</v>
@@ -8529,10 +8513,10 @@
         <v>0.1</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L217">
         <v>10.285714285714286</v>
@@ -8567,10 +8551,10 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K218">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L218">
         <v>7.1428571428571432</v>
@@ -8605,10 +8589,10 @@
         <v>0.1</v>
       </c>
       <c r="J219">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L219">
         <v>6.8571428571428568</v>
@@ -8646,7 +8630,7 @@
         <v>0.1</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L220">
         <v>5.8571428571428568</v>
@@ -8684,7 +8668,7 @@
         <v>0.1</v>
       </c>
       <c r="K221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>5.4285714285714288</v>
@@ -8719,10 +8703,10 @@
         <v>0.1</v>
       </c>
       <c r="J222">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K222">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
         <v>8</v>
@@ -8760,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L223">
         <v>8.1428571428571441</v>
@@ -8795,10 +8779,10 @@
         <v>0.3</v>
       </c>
       <c r="J224">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K224">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L224">
         <v>5.7142857142857144</v>
@@ -8833,10 +8817,10 @@
         <v>0.1</v>
       </c>
       <c r="J225">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L225">
         <v>4.5714285714285712</v>
@@ -8871,10 +8855,10 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K226">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L226">
         <v>4.8571428571428568</v>
@@ -8909,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L227">
         <v>3.8571428571428572</v>
@@ -8947,7 +8931,7 @@
         <v>0.1</v>
       </c>
       <c r="J228">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>2.9</v>
@@ -8985,10 +8969,10 @@
         <v>0.2</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K229">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L229">
         <v>7.2857142857142865</v>
@@ -9023,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K230">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L230">
         <v>4.7142857142857144</v>
@@ -9061,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K231">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L231">
         <v>4</v>
@@ -9098,6 +9082,12 @@
       <c r="I232">
         <v>0</v>
       </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>2.5</v>
+      </c>
       <c r="L232">
         <v>3.2857142857142856</v>
       </c>
@@ -9131,10 +9121,10 @@
         <v>0.1</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K233">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="L233">
         <v>3.1428571428571432</v>
@@ -9169,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K234">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L234">
         <v>2.8571428571428572</v>
@@ -9210,7 +9200,7 @@
         <v>0.1</v>
       </c>
       <c r="K235">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L235">
         <v>3.4285714285714284</v>
@@ -9245,10 +9235,10 @@
         <v>0.1</v>
       </c>
       <c r="J236">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K236">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L236">
         <v>3.4285714285714284</v>
@@ -9283,10 +9273,10 @@
         <v>0.1</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K237">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
         <v>3</v>
@@ -9321,10 +9311,10 @@
         <v>0.2</v>
       </c>
       <c r="J238">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K238">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="L238">
         <v>2.8571428571428572</v>
@@ -9397,10 +9387,10 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L240">
         <v>1.4285714285714286</v>
@@ -9435,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K241">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L241">
         <v>2.7142857142857144</v>
@@ -9473,10 +9463,10 @@
         <v>0.1</v>
       </c>
       <c r="J242">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K242">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="L242">
         <v>2.2857142857142856</v>
@@ -9511,10 +9501,10 @@
         <v>0.2</v>
       </c>
       <c r="J243">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K243">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L243">
         <v>3.4285714285714284</v>
@@ -9549,10 +9539,10 @@
         <v>0.1</v>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K244">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L244">
         <v>3.7142857142857144</v>
@@ -9590,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
         <v>4.2857142857142856</v>
@@ -9628,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="K246">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L246">
         <v>1.8571428571428572</v>
@@ -9662,6 +9652,12 @@
       <c r="I247">
         <v>0.1</v>
       </c>
+      <c r="J247">
+        <v>0.4</v>
+      </c>
+      <c r="K247">
+        <v>2.1</v>
+      </c>
       <c r="L247">
         <v>0.2857142857142857</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -9733,10 +9729,10 @@
         <v>0.1</v>
       </c>
       <c r="J249">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K249">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L249">
         <v>1.8571428571428572</v>
@@ -9774,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="K250">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L250">
         <v>1</v>
@@ -9812,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="K251">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L251">
         <v>0.7142857142857143</v>
@@ -9847,10 +9843,10 @@
         <v>0.3</v>
       </c>
       <c r="J252">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K252">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L252">
         <v>1.4285714285714286</v>
@@ -9885,10 +9881,10 @@
         <v>0.1</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K253">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L253">
         <v>1.1428571428571428</v>
@@ -9923,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K254">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="L254">
         <v>0.14285714285714285</v>
@@ -9961,10 +9957,10 @@
         <v>0.1</v>
       </c>
       <c r="J255">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L255">
         <v>0.7142857142857143</v>
@@ -9999,10 +9995,10 @@
         <v>0.2</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K256">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L256">
         <v>0</v>
@@ -10040,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L257">
         <v>0.5714285714285714</v>
@@ -10075,10 +10071,10 @@
         <v>0.1</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K258">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="L258">
         <v>0.42857142857142855</v>
@@ -10113,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K259">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -10154,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="K260">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -10189,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K261">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -10227,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K262">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L262">
         <v>0.7142857142857143</v>
@@ -10265,10 +10261,10 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K263">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="L263">
         <v>0.14285714285714285</v>
@@ -10303,10 +10299,10 @@
         <v>0.1</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K264">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="L264">
         <v>1</v>
@@ -10341,10 +10337,10 @@
         <v>0.1</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K265">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L265">
         <v>1.5714285714285716</v>
@@ -10379,10 +10375,10 @@
         <v>0.1</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L266">
         <v>1.4285714285714286</v>
@@ -10417,10 +10413,10 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L267">
         <v>1.4285714285714286</v>
@@ -10486,12 +10482,6 @@
       <c r="H269">
         <v>6</v>
       </c>
-      <c r="J269">
-        <v>0.1</v>
-      </c>
-      <c r="K269">
-        <v>1.9</v>
-      </c>
       <c r="L269">
         <v>1.4285714285714286</v>
       </c>
@@ -10524,9 +10514,6 @@
       <c r="J270">
         <v>0</v>
       </c>
-      <c r="K270">
-        <v>1.9</v>
-      </c>
       <c r="L270">
         <v>2.1428571428571428</v>
       </c>
@@ -10560,10 +10547,10 @@
         <v>0.2</v>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K271">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L271">
         <v>1.4285714285714286</v>
@@ -10601,7 +10588,7 @@
         <v>0.1</v>
       </c>
       <c r="K272">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L272">
         <v>1.1428571428571428</v>
@@ -10639,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="K273">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="L273">
         <v>1.4285714285714286</v>
@@ -10674,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K274">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L274">
         <v>1.2857142857142858</v>
@@ -10712,7 +10699,7 @@
         <v>0.1</v>
       </c>
       <c r="J275">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K275">
         <v>2.1</v>
@@ -10753,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="K276">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L276">
         <v>2</v>
@@ -10791,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="K277">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="L277">
         <v>1.1428571428571428</v>
@@ -10829,7 +10816,7 @@
         <v>0.1</v>
       </c>
       <c r="K278">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L278">
         <v>1.2857142857142858</v>
@@ -10864,10 +10851,10 @@
         <v>0.1</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K279">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L279">
         <v>1</v>
@@ -10902,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K280">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L280">
         <v>2.1428571428571428</v>
@@ -10940,10 +10927,10 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L281">
         <v>0.7142857142857143</v>
@@ -10981,7 +10968,7 @@
         <v>0.1</v>
       </c>
       <c r="K282">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L282">
         <v>0.42857142857142855</v>
@@ -11016,10 +11003,10 @@
         <v>0.3</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K283">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -11054,10 +11041,10 @@
         <v>0.1</v>
       </c>
       <c r="J284">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K284">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L284">
         <v>0.5714285714285714</v>
@@ -11092,10 +11079,10 @@
         <v>0.1</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K285">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L285">
         <v>0.5714285714285714</v>
@@ -11133,7 +11120,7 @@
         <v>0.2</v>
       </c>
       <c r="K286">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L286">
         <v>0.7142857142857143</v>
@@ -11209,7 +11196,7 @@
         <v>0.1</v>
       </c>
       <c r="K288">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L288">
         <v>2</v>
@@ -11247,7 +11234,7 @@
         <v>0.1</v>
       </c>
       <c r="K289">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L289">
         <v>1</v>
@@ -11282,10 +11269,10 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K290">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="L290">
         <v>1.1428571428571428</v>
@@ -11320,10 +11307,10 @@
         <v>0.1</v>
       </c>
       <c r="J291">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K291">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L291">
         <v>3</v>
@@ -11345,12 +11332,6 @@
       <c r="E292">
         <v>72</v>
       </c>
-      <c r="J292">
-        <v>0</v>
-      </c>
-      <c r="K292">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="L292">
         <v>5.2857142857142856</v>
       </c>
@@ -11371,12 +11352,6 @@
       <c r="E293">
         <v>56</v>
       </c>
-      <c r="J293">
-        <v>0.1</v>
-      </c>
-      <c r="K293">
-        <v>1.7</v>
-      </c>
       <c r="L293">
         <v>3.4285714285714284</v>
       </c>
@@ -11397,12 +11372,6 @@
       <c r="E294">
         <v>51</v>
       </c>
-      <c r="J294">
-        <v>0.3</v>
-      </c>
-      <c r="K294">
-        <v>2.5</v>
-      </c>
       <c r="L294">
         <v>4.2857142857142856</v>
       </c>
@@ -11423,12 +11392,6 @@
       <c r="E295">
         <v>31</v>
       </c>
-      <c r="J295">
-        <v>0</v>
-      </c>
-      <c r="K295">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="L295">
         <v>5.4285714285714288</v>
       </c>
@@ -11449,12 +11412,6 @@
       <c r="E296">
         <v>62</v>
       </c>
-      <c r="J296">
-        <v>0</v>
-      </c>
-      <c r="K296">
-        <v>1.8</v>
-      </c>
       <c r="L296">
         <v>2.7142857142857144</v>
       </c>
@@ -11475,12 +11432,6 @@
       <c r="E297">
         <v>46</v>
       </c>
-      <c r="J297">
-        <v>1</v>
-      </c>
-      <c r="K297">
-        <v>1.5</v>
-      </c>
       <c r="L297">
         <v>2.7142857142857144</v>
       </c>
@@ -11514,10 +11465,10 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K298">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="L298">
         <v>5</v>
@@ -11552,10 +11503,10 @@
         <v>0.1</v>
       </c>
       <c r="J299">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K299">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L299">
         <v>11.142857142857142</v>
@@ -11593,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="K300">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L300">
         <v>9</v>
@@ -11628,10 +11579,10 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K301">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="L301">
         <v>12.142857142857142</v>
@@ -11669,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="K302">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L302">
         <v>6.4285714285714288</v>
@@ -11707,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="K303">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L303">
         <v>13.142857142857142</v>
@@ -11780,10 +11731,10 @@
         <v>0.1</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K305">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L305">
         <v>9.5714285714285712</v>
@@ -11818,10 +11769,10 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K306">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L306">
         <v>18.285714285714285</v>
@@ -11856,10 +11807,10 @@
         <v>0.1</v>
       </c>
       <c r="J307">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K307">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L307">
         <v>35.571428571428569</v>
@@ -11935,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="K309">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L309">
         <v>22.857142857142858</v>
@@ -11973,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="K310">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L310">
         <v>31</v>
@@ -12008,10 +11959,10 @@
         <v>0.1</v>
       </c>
       <c r="J311">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K311">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L311">
         <v>30.142857142857142</v>
@@ -12078,7 +12029,7 @@
         <v>10.3</v>
       </c>
       <c r="J313">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K313">
         <v>1.5</v>
@@ -12116,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K314">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L314">
         <v>120.99999999999999</v>
@@ -12157,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="K315">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="L315">
         <v>134.42857142857144</v>
@@ -12195,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="K316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L316">
         <v>61.428571428571423</v>
@@ -12230,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K317">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L317">
         <v>62.142857142857139</v>
@@ -12268,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K318">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="L318">
         <v>92.714285714285722</v>
@@ -12306,10 +12257,10 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K319">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="L319">
         <v>89.571428571428569</v>
@@ -12344,10 +12295,10 @@
         <v>0.1</v>
       </c>
       <c r="J320">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L320">
         <v>74.571428571428569</v>
@@ -12385,7 +12336,7 @@
         <v>0.1</v>
       </c>
       <c r="K321">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L321">
         <v>31.428571428571427</v>
@@ -12423,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="K322">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L322">
         <v>100.28571428571428</v>
@@ -12454,11 +12405,8 @@
       <c r="I323">
         <v>0</v>
       </c>
-      <c r="J323">
-        <v>0</v>
-      </c>
       <c r="K323">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="L323">
         <v>56.428571428571431</v>
@@ -12489,11 +12437,8 @@
       <c r="I324">
         <v>0.1</v>
       </c>
-      <c r="J324">
-        <v>0</v>
-      </c>
       <c r="K324">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L324">
         <v>51.428571428571431</v>
@@ -12524,11 +12469,8 @@
       <c r="I325">
         <v>0</v>
       </c>
-      <c r="J325">
-        <v>0</v>
-      </c>
       <c r="K325">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L325">
         <v>41.285714285714285</v>
@@ -12559,11 +12501,8 @@
       <c r="I326">
         <v>0</v>
       </c>
-      <c r="J326">
-        <v>0</v>
-      </c>
       <c r="K326">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L326">
         <v>65.857142857142861</v>
@@ -12594,11 +12533,8 @@
       <c r="I327">
         <v>0</v>
       </c>
-      <c r="J327">
-        <v>0.3</v>
-      </c>
       <c r="K327">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="L327">
         <v>53.857142857142861</v>
@@ -12629,11 +12565,8 @@
       <c r="I328">
         <v>0</v>
       </c>
-      <c r="J328">
-        <v>0.2</v>
-      </c>
       <c r="K328">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L328">
         <v>83</v>
@@ -12668,10 +12601,10 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K329">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L329">
         <v>85.428571428571431</v>
@@ -12706,10 +12639,10 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K330">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="L330">
         <v>101.57142857142858</v>
@@ -12744,10 +12677,10 @@
         <v>0.1</v>
       </c>
       <c r="J331">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K331">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L331">
         <v>92</v>
@@ -12782,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="K332">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="L332">
         <v>89.285714285714278</v>
@@ -12820,10 +12753,10 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="K333">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L333">
         <v>97.714285714285722</v>
@@ -12861,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="K334">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L334">
         <v>93.857142857142861</v>
@@ -12899,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="K335">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L335">
         <v>61.714285714285715</v>
@@ -12934,10 +12867,10 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="K336">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L336">
         <v>69.428571428571416</v>
@@ -12975,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="K337">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L337">
         <v>56.142857142857146</v>
@@ -13010,10 +12943,10 @@
         <v>0.1</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K338">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L338">
         <v>61.857142857142861</v>
@@ -13048,10 +12981,10 @@
         <v>0.2</v>
       </c>
       <c r="J339">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K339">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L339">
         <v>66.714285714285708</v>
@@ -13086,10 +13019,10 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K340">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="L340">
         <v>82.428571428571431</v>
@@ -13127,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="K341">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="L341">
         <v>60.428571428571431</v>
@@ -13165,7 +13098,7 @@
         <v>0.1</v>
       </c>
       <c r="K342">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L342">
         <v>59</v>
@@ -13200,10 +13133,10 @@
         <v>0</v>
       </c>
       <c r="J343">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K343">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="L343">
         <v>49.285714285714285</v>
@@ -13238,10 +13171,10 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K344">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L344">
         <v>40.571428571428569</v>
@@ -13279,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="K345">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="L345">
         <v>32</v>
@@ -13314,10 +13247,10 @@
         <v>0.1</v>
       </c>
       <c r="J346">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K346">
-        <v>2.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="L346">
         <v>53.857142857142861</v>
@@ -13352,10 +13285,10 @@
         <v>0.2</v>
       </c>
       <c r="J347">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K347">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L347">
         <v>55.999999999999993</v>
@@ -13390,10 +13323,10 @@
         <v>0.2</v>
       </c>
       <c r="J348">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L348">
         <v>47.857142857142854</v>
@@ -13431,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="K349">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L349">
         <v>41.714285714285715</v>
@@ -13465,6 +13398,12 @@
       <c r="I350">
         <v>0</v>
       </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>1.8</v>
+      </c>
       <c r="L350">
         <v>44</v>
       </c>
@@ -13497,6 +13436,12 @@
       <c r="I351">
         <v>0</v>
       </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1.8</v>
+      </c>
       <c r="L351">
         <v>41.714285714285715</v>
       </c>
@@ -13529,6 +13474,12 @@
       <c r="I352">
         <v>0.1</v>
       </c>
+      <c r="J352">
+        <v>0.3</v>
+      </c>
+      <c r="K352">
+        <v>1.3</v>
+      </c>
       <c r="L352">
         <v>34.142857142857139</v>
       </c>
@@ -13562,10 +13513,10 @@
         <v>0.1</v>
       </c>
       <c r="J353">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K353">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L353">
         <v>59.428571428571431</v>
@@ -13600,10 +13551,10 @@
         <v>0.1</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K354">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="L354">
         <v>55.857142857142854</v>
@@ -13638,10 +13589,10 @@
         <v>0.3</v>
       </c>
       <c r="J355">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K355">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L355">
         <v>54.857142857142854</v>
@@ -13676,10 +13627,10 @@
         <v>0.1</v>
       </c>
       <c r="J356">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K356">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="L356">
         <v>53.714285714285715</v>
@@ -13717,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="K357">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="L357">
         <v>47.857142857142854</v>
@@ -13752,7 +13703,7 @@
         <v>0.1</v>
       </c>
       <c r="J358">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K358">
         <v>2</v>
@@ -13790,10 +13741,10 @@
         <v>0.1</v>
       </c>
       <c r="J359">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K359">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L359">
         <v>42.285714285714285</v>
@@ -13821,12 +13772,6 @@
       <c r="H360">
         <v>7.1</v>
       </c>
-      <c r="J360">
-        <v>0.6</v>
-      </c>
-      <c r="K360">
-        <v>1.7</v>
-      </c>
       <c r="L360">
         <v>51.428571428571431</v>
       </c>
@@ -13860,10 +13805,10 @@
         <v>0</v>
       </c>
       <c r="J361">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K361">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L361">
         <v>62.857142857142854</v>
@@ -13898,10 +13843,10 @@
         <v>0</v>
       </c>
       <c r="J362">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K362">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="L362">
         <v>56.714285714285708</v>
@@ -13939,7 +13884,7 @@
         <v>0.1</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L363">
         <v>55.571428571428569</v>
@@ -13974,10 +13919,10 @@
         <v>0.1</v>
       </c>
       <c r="J364">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K364">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L364">
         <v>39.428571428571423</v>
@@ -14012,10 +13957,10 @@
         <v>0.1</v>
       </c>
       <c r="J365">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K365">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L365">
         <v>36</v>
@@ -14050,10 +13995,10 @@
         <v>0</v>
       </c>
       <c r="J366">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K366">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L366">
         <v>41.857142857142861</v>
@@ -14088,10 +14033,10 @@
         <v>0</v>
       </c>
       <c r="J367">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K367">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L367">
         <v>57.285714285714285</v>
@@ -14126,10 +14071,10 @@
         <v>0</v>
       </c>
       <c r="J368">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K368">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L368">
         <v>54.428571428571431</v>
@@ -14164,10 +14109,10 @@
         <v>0</v>
       </c>
       <c r="J369">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K369">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L369">
         <v>57.857142857142861</v>
@@ -14202,7 +14147,7 @@
         <v>0.1</v>
       </c>
       <c r="K370">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="L370">
         <v>52.285714285714285</v>
@@ -14234,10 +14179,10 @@
         <v>0.1</v>
       </c>
       <c r="J371">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K371">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L371">
         <v>50.571428571428569</v>
@@ -14269,10 +14214,10 @@
         <v>0</v>
       </c>
       <c r="J372">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K372">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L372">
         <v>51.000000000000007</v>
@@ -14307,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="K373">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L373">
         <v>41.428571428571431</v>
@@ -14342,10 +14287,10 @@
         <v>0.1</v>
       </c>
       <c r="J374">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K374">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="L374">
         <v>60.428571428571431</v>
@@ -14380,10 +14325,10 @@
         <v>0</v>
       </c>
       <c r="J375">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K375">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L375">
         <v>64.714285714285708</v>
@@ -14421,7 +14366,7 @@
         <v>0.1</v>
       </c>
       <c r="K376">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L376">
         <v>72.714285714285722</v>
@@ -14456,10 +14401,10 @@
         <v>0</v>
       </c>
       <c r="J377">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K377">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L377">
         <v>60.571428571428569</v>
@@ -14494,10 +14439,10 @@
         <v>0</v>
       </c>
       <c r="J378">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K378">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L378">
         <v>59.714285714285715</v>
@@ -14532,7 +14477,7 @@
         <v>0.1</v>
       </c>
       <c r="J379">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K379">
         <v>1.5</v>
@@ -14570,10 +14515,10 @@
         <v>0.1</v>
       </c>
       <c r="J380">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K380">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L380">
         <v>14.571428571428573</v>
@@ -14608,10 +14553,10 @@
         <v>0</v>
       </c>
       <c r="J381">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K381">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L381">
         <v>106.42857142857142</v>
@@ -14646,10 +14591,10 @@
         <v>0</v>
       </c>
       <c r="J382">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K382">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L382">
         <v>88.142857142857139</v>
@@ -14684,10 +14629,10 @@
         <v>0.1</v>
       </c>
       <c r="J383">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="K383">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L383">
         <v>93.428571428571431</v>
@@ -14722,7 +14667,7 @@
         <v>0.4</v>
       </c>
       <c r="J384">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K384">
         <v>1.5</v>
@@ -14760,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="J385">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K385">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L385">
         <v>92.857142857142861</v>
@@ -14798,10 +14743,10 @@
         <v>0.1</v>
       </c>
       <c r="J386">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K386">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L386">
         <v>74.714285714285708</v>
@@ -14839,7 +14784,7 @@
         <v>0.1</v>
       </c>
       <c r="K387">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L387">
         <v>74.428571428571431</v>
@@ -14874,10 +14819,10 @@
         <v>0.3</v>
       </c>
       <c r="J388">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K388">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L388">
         <v>105.42857142857142</v>
@@ -14912,10 +14857,10 @@
         <v>0</v>
       </c>
       <c r="J389">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K389">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L389">
         <v>131.71428571428572</v>
@@ -14947,10 +14892,10 @@
         <v>0</v>
       </c>
       <c r="J390">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="K390">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L390">
         <v>139.71428571428572</v>
@@ -14982,10 +14927,10 @@
         <v>0</v>
       </c>
       <c r="J391">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="K391">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="L391">
         <v>122.85714285714285</v>
@@ -15017,10 +14962,10 @@
         <v>0</v>
       </c>
       <c r="J392">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K392">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L392">
         <v>108.14285714285715</v>
@@ -15052,10 +14997,10 @@
         <v>0.1</v>
       </c>
       <c r="J393">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="K393">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L393">
         <v>87</v>
@@ -15087,10 +15032,10 @@
         <v>0.1</v>
       </c>
       <c r="J394">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K394">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="L394">
         <v>87.285714285714292</v>
@@ -15125,10 +15070,10 @@
         <v>0.1</v>
       </c>
       <c r="J395">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="K395">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L395">
         <v>115</v>
@@ -15163,10 +15108,10 @@
         <v>0.1</v>
       </c>
       <c r="J396">
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="K396">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L396">
         <v>123.28571428571429</v>
@@ -15201,2669 +15146,13 @@
         <v>0</v>
       </c>
       <c r="J397">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K397">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L397">
         <v>131.57142857142858</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J398">
-        <v>0.4</v>
-      </c>
-      <c r="K398">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J399">
-        <v>1.3</v>
-      </c>
-      <c r="K399">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="J400">
-        <v>1.6</v>
-      </c>
-      <c r="K400">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="401" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J401">
-        <v>0.1</v>
-      </c>
-      <c r="K401">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="402" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J402">
-        <v>0</v>
-      </c>
-      <c r="K402">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="403" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J403">
-        <v>0.2</v>
-      </c>
-      <c r="K403">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="404" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J404">
-        <v>0.8</v>
-      </c>
-      <c r="K404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J405">
-        <v>0.2</v>
-      </c>
-      <c r="K405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J406">
-        <v>0.8</v>
-      </c>
-      <c r="K406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J407">
-        <v>1</v>
-      </c>
-      <c r="K407">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="408" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J408">
-        <v>0.5</v>
-      </c>
-      <c r="K408">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="409" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J409">
-        <v>0.7</v>
-      </c>
-      <c r="K409">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="410" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J410">
-        <v>0.1</v>
-      </c>
-      <c r="K410">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J411">
-        <v>0.1</v>
-      </c>
-      <c r="K411">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="412" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J412">
-        <v>0.2</v>
-      </c>
-      <c r="K412">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J415">
-        <v>1.8</v>
-      </c>
-      <c r="K415">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="416" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J416">
-        <v>1.4</v>
-      </c>
-      <c r="K416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J417">
-        <v>1.4</v>
-      </c>
-      <c r="K417">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="418" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J418">
-        <v>0.9</v>
-      </c>
-      <c r="K418">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="419" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J419">
-        <v>0.5</v>
-      </c>
-      <c r="K419">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="420" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J420">
-        <v>1.7</v>
-      </c>
-      <c r="K420">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="421" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J421">
-        <v>1.6</v>
-      </c>
-      <c r="K421">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="422" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J422">
-        <v>0.3</v>
-      </c>
-      <c r="K422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J423">
-        <v>0.2</v>
-      </c>
-      <c r="K423">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="424" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J424">
-        <v>0.1</v>
-      </c>
-      <c r="K424">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="425" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J425">
-        <v>0</v>
-      </c>
-      <c r="K425">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="426" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J426">
-        <v>0.1</v>
-      </c>
-      <c r="K426">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="427" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J427">
-        <v>1</v>
-      </c>
-      <c r="K427">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="428" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J428">
-        <v>4.8</v>
-      </c>
-      <c r="K428">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="429" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J429">
-        <v>2.9</v>
-      </c>
-      <c r="K429">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="430" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J430">
-        <v>8.1</v>
-      </c>
-      <c r="K430">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="431" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J431">
-        <v>0.7</v>
-      </c>
-      <c r="K431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J432">
-        <v>0.8</v>
-      </c>
-      <c r="K432">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="433" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J433">
-        <v>0.7</v>
-      </c>
-      <c r="K433">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="434" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J434">
-        <v>1.5</v>
-      </c>
-      <c r="K434">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="435" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J435">
-        <v>0.2</v>
-      </c>
-      <c r="K435">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="436" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J436">
-        <v>0.4</v>
-      </c>
-      <c r="K436">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="437" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J437">
-        <v>0.5</v>
-      </c>
-      <c r="K437">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="438" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J438">
-        <v>1.7</v>
-      </c>
-      <c r="K438">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="439" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J439">
-        <v>0.3</v>
-      </c>
-      <c r="K439">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="440" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J440">
-        <v>0.1</v>
-      </c>
-      <c r="K440">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="441" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J441">
-        <v>0.2</v>
-      </c>
-      <c r="K441">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="442" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J442">
-        <v>2.1</v>
-      </c>
-      <c r="K442">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="443" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J443">
-        <v>1.9</v>
-      </c>
-      <c r="K443">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="444" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J444">
-        <v>0.6</v>
-      </c>
-      <c r="K444">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="445" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J445">
-        <v>0.5</v>
-      </c>
-      <c r="K445">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="446" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J446">
-        <v>0</v>
-      </c>
-      <c r="K446">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="447" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J447">
-        <v>0</v>
-      </c>
-      <c r="K447">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="448" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J448">
-        <v>0.6</v>
-      </c>
-      <c r="K448">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="449" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J449">
-        <v>1.8</v>
-      </c>
-      <c r="K449">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="450" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J450">
-        <v>2</v>
-      </c>
-      <c r="K450">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="451" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J451">
-        <v>0.1</v>
-      </c>
-      <c r="K451">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="452" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J452">
-        <v>0.4</v>
-      </c>
-      <c r="K452">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="453" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J453">
-        <v>0.1</v>
-      </c>
-      <c r="K453">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="454" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J454">
-        <v>0.1</v>
-      </c>
-      <c r="K454">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="455" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J455">
-        <v>1</v>
-      </c>
-      <c r="K455">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="456" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J456">
-        <v>0.9</v>
-      </c>
-      <c r="K456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J457">
-        <v>1.3</v>
-      </c>
-      <c r="K457">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="458" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J458">
-        <v>3.9</v>
-      </c>
-      <c r="K458">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="459" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J459">
-        <v>0.9</v>
-      </c>
-      <c r="K459">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="460" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J460">
-        <v>0.5</v>
-      </c>
-      <c r="K460">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="461" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J461">
-        <v>0</v>
-      </c>
-      <c r="K461">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="462" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J462">
-        <v>0.4</v>
-      </c>
-      <c r="K462">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="463" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J463">
-        <v>0.8</v>
-      </c>
-      <c r="K463">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="464" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J464">
-        <v>1.4</v>
-      </c>
-      <c r="K464">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="465" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J465">
-        <v>3.8</v>
-      </c>
-      <c r="K465">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="466" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J466">
-        <v>3.7</v>
-      </c>
-      <c r="K466">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="467" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J467">
-        <v>0</v>
-      </c>
-      <c r="K467">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="468" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J468">
-        <v>0.2</v>
-      </c>
-      <c r="K468">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="469" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K469">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="470" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J470">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K470">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="471" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J471">
-        <v>0.2</v>
-      </c>
-      <c r="K471">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="472" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J472">
-        <v>0.2</v>
-      </c>
-      <c r="K472">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="473" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J473">
-        <v>0.3</v>
-      </c>
-      <c r="K473">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J474">
-        <v>0</v>
-      </c>
-      <c r="K474">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="475" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J475">
-        <v>0</v>
-      </c>
-      <c r="K475">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="476" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J476">
-        <v>0.2</v>
-      </c>
-      <c r="K476">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="477" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J477">
-        <v>0.1</v>
-      </c>
-      <c r="K477">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="478" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J478">
-        <v>0.1</v>
-      </c>
-      <c r="K478">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="479" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J479">
-        <v>0.3</v>
-      </c>
-      <c r="K479">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="480" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J480">
-        <v>0</v>
-      </c>
-      <c r="K480">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="481" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J481">
-        <v>0</v>
-      </c>
-      <c r="K481">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="482" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J482">
-        <v>0</v>
-      </c>
-      <c r="K482">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="483" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J483">
-        <v>0</v>
-      </c>
-      <c r="K483">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="484" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J484">
-        <v>0.1</v>
-      </c>
-      <c r="K484">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="485" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J485">
-        <v>0</v>
-      </c>
-      <c r="K485">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="486" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J486">
-        <v>0</v>
-      </c>
-      <c r="K486">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="487" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J487">
-        <v>0.4</v>
-      </c>
-      <c r="K487">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="488" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J488">
-        <v>0.4</v>
-      </c>
-      <c r="K488">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="489" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J489">
-        <v>0</v>
-      </c>
-      <c r="K489">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="490" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J490">
-        <v>0.6</v>
-      </c>
-      <c r="K490">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="491" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J491">
-        <v>0.2</v>
-      </c>
-      <c r="K491">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="492" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J492">
-        <v>0.1</v>
-      </c>
-      <c r="K492">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="493" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J493">
-        <v>0.3</v>
-      </c>
-      <c r="K493">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="494" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J494">
-        <v>0.4</v>
-      </c>
-      <c r="K494">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="495" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J495">
-        <v>0.1</v>
-      </c>
-      <c r="K495">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="496" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J496">
-        <v>0</v>
-      </c>
-      <c r="K496">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="497" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J497">
-        <v>0.5</v>
-      </c>
-      <c r="K497">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="498" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J498">
-        <v>0.6</v>
-      </c>
-      <c r="K498">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="499" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J499">
-        <v>0.1</v>
-      </c>
-      <c r="K499">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="500" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J500">
-        <v>0.1</v>
-      </c>
-      <c r="K500">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="501" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J501">
-        <v>0.4</v>
-      </c>
-      <c r="K501">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="502" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J502">
-        <v>0.2</v>
-      </c>
-      <c r="K502">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="503" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J503">
-        <v>0</v>
-      </c>
-      <c r="K503">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="504" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J504">
-        <v>0.2</v>
-      </c>
-      <c r="K504">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="505" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J505">
-        <v>0.1</v>
-      </c>
-      <c r="K505">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="506" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J506">
-        <v>0.4</v>
-      </c>
-      <c r="K506">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="507" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J507">
-        <v>0.9</v>
-      </c>
-      <c r="K507">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="508" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J508">
-        <v>0.7</v>
-      </c>
-      <c r="K508">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="509" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J509">
-        <v>0.6</v>
-      </c>
-      <c r="K509">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="510" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J510">
-        <v>0.3</v>
-      </c>
-      <c r="K510">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="511" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J511">
-        <v>0</v>
-      </c>
-      <c r="K511">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="512" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J512">
-        <v>0</v>
-      </c>
-      <c r="K512">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="513" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J513">
-        <v>0</v>
-      </c>
-      <c r="K513">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="514" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J514">
-        <v>0.2</v>
-      </c>
-      <c r="K514">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="515" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J515">
-        <v>0.6</v>
-      </c>
-      <c r="K515">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="516" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J516">
-        <v>0</v>
-      </c>
-      <c r="K516">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="517" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J517">
-        <v>0.5</v>
-      </c>
-      <c r="K517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J518">
-        <v>0.3</v>
-      </c>
-      <c r="K518">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="519" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J519">
-        <v>0.9</v>
-      </c>
-      <c r="K519">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="520" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J520">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K520">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="521" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J521">
-        <v>0.9</v>
-      </c>
-      <c r="K521">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="523" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J523">
-        <v>0</v>
-      </c>
-      <c r="K523">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="524" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J524">
-        <v>0</v>
-      </c>
-      <c r="K524">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="525" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J525">
-        <v>0.1</v>
-      </c>
-      <c r="K525">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="526" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J526">
-        <v>0.5</v>
-      </c>
-      <c r="K526">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="527" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J527">
-        <v>0.4</v>
-      </c>
-      <c r="K527">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="528" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J528">
-        <v>0.6</v>
-      </c>
-      <c r="K528">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="529" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J529">
-        <v>0.1</v>
-      </c>
-      <c r="K529">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="530" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J530">
-        <v>0.1</v>
-      </c>
-      <c r="K530">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="531" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J531">
-        <v>0</v>
-      </c>
-      <c r="K531">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="532" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J532">
-        <v>0.1</v>
-      </c>
-      <c r="K532">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="533" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J533">
-        <v>0</v>
-      </c>
-      <c r="K533">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="534" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J534">
-        <v>0.1</v>
-      </c>
-      <c r="K534">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="535" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J535">
-        <v>0.2</v>
-      </c>
-      <c r="K535">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="536" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J536">
-        <v>0.6</v>
-      </c>
-      <c r="K536">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="537" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J537">
-        <v>0</v>
-      </c>
-      <c r="K537">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="538" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J538">
-        <v>0</v>
-      </c>
-      <c r="K538">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="539" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J539">
-        <v>0</v>
-      </c>
-      <c r="K539">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="540" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J540">
-        <v>0</v>
-      </c>
-      <c r="K540">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="541" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J541">
-        <v>0.2</v>
-      </c>
-      <c r="K541">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="542" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J542">
-        <v>0.7</v>
-      </c>
-      <c r="K542">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="543" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J543">
-        <v>0.2</v>
-      </c>
-      <c r="K543">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="544" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J544">
-        <v>0</v>
-      </c>
-      <c r="K544">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="545" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J545">
-        <v>0</v>
-      </c>
-      <c r="K545">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="546" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J546">
-        <v>0.2</v>
-      </c>
-      <c r="K546">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="547" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J547">
-        <v>0.4</v>
-      </c>
-      <c r="K547">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="548" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J548">
-        <v>0</v>
-      </c>
-      <c r="K548">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="549" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J549">
-        <v>0.1</v>
-      </c>
-      <c r="K549">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="550" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J550">
-        <v>0.4</v>
-      </c>
-      <c r="K550">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="551" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J551">
-        <v>0.1</v>
-      </c>
-      <c r="K551">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="552" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J552">
-        <v>0.1</v>
-      </c>
-      <c r="K552">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="553" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J553">
-        <v>0.1</v>
-      </c>
-      <c r="K553">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="554" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J554">
-        <v>0.1</v>
-      </c>
-      <c r="K554">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="555" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J555">
-        <v>0.1</v>
-      </c>
-      <c r="K555">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="556" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J556">
-        <v>0.1</v>
-      </c>
-      <c r="K556">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="557" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J557">
-        <v>0</v>
-      </c>
-      <c r="K557">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="558" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J558">
-        <v>0.2</v>
-      </c>
-      <c r="K558">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="559" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J559">
-        <v>0</v>
-      </c>
-      <c r="K559">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="560" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J560">
-        <v>0</v>
-      </c>
-      <c r="K560">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="561" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J561">
-        <v>0</v>
-      </c>
-      <c r="K561">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="562" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J562">
-        <v>0</v>
-      </c>
-      <c r="K562">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="563" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J563">
-        <v>0.1</v>
-      </c>
-      <c r="K563">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="564" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J564">
-        <v>0.2</v>
-      </c>
-      <c r="K564">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="565" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J565">
-        <v>0</v>
-      </c>
-      <c r="K565">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="566" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J566">
-        <v>0</v>
-      </c>
-      <c r="K566">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="567" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J567">
-        <v>0.5</v>
-      </c>
-      <c r="K567">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="568" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J568">
-        <v>0.5</v>
-      </c>
-      <c r="K568">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="569" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J569">
-        <v>0.1</v>
-      </c>
-      <c r="K569">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="570" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J570">
-        <v>0.3</v>
-      </c>
-      <c r="K570">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="571" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J571">
-        <v>0.1</v>
-      </c>
-      <c r="K571">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="572" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J572">
-        <v>0.1</v>
-      </c>
-      <c r="K572">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="573" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J573">
-        <v>0</v>
-      </c>
-      <c r="K573">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="574" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J574">
-        <v>0.3</v>
-      </c>
-      <c r="K574">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="575" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J575">
-        <v>0.3</v>
-      </c>
-      <c r="K575">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="576" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J576">
-        <v>0</v>
-      </c>
-      <c r="K576">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="577" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J577">
-        <v>0.5</v>
-      </c>
-      <c r="K577">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="578" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J578">
-        <v>0.1</v>
-      </c>
-      <c r="K578">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="579" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J579">
-        <v>0</v>
-      </c>
-      <c r="K579">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="580" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J580">
-        <v>0</v>
-      </c>
-      <c r="K580">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="581" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J581">
-        <v>0.4</v>
-      </c>
-      <c r="K581">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="582" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J582">
-        <v>0</v>
-      </c>
-      <c r="K582">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="583" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J583">
-        <v>0</v>
-      </c>
-      <c r="K583">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="584" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J584">
-        <v>0</v>
-      </c>
-      <c r="K584">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="585" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J585">
-        <v>0</v>
-      </c>
-      <c r="K585">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="586" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J586">
-        <v>0</v>
-      </c>
-      <c r="K586">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="587" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J587">
-        <v>0.1</v>
-      </c>
-      <c r="K587">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="588" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J588">
-        <v>0</v>
-      </c>
-      <c r="K588">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="589" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J589">
-        <v>0</v>
-      </c>
-      <c r="K589">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="590" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J590">
-        <v>0.2</v>
-      </c>
-      <c r="K590">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="591" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J591">
-        <v>0</v>
-      </c>
-      <c r="K591">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="592" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J592">
-        <v>0.2</v>
-      </c>
-      <c r="K592">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="593" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J593">
-        <v>0.1</v>
-      </c>
-      <c r="K593">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="594" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J594">
-        <v>0</v>
-      </c>
-      <c r="K594">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="595" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J595">
-        <v>0.2</v>
-      </c>
-      <c r="K595">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="596" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J596">
-        <v>0.1</v>
-      </c>
-      <c r="K596">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="597" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J597">
-        <v>0</v>
-      </c>
-      <c r="K597">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="598" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J598">
-        <v>0.1</v>
-      </c>
-      <c r="K598">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="599" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J599">
-        <v>0.4</v>
-      </c>
-      <c r="K599">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="600" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J600">
-        <v>-0.1</v>
-      </c>
-      <c r="K600">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="601" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J601">
-        <v>0</v>
-      </c>
-      <c r="K601">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="602" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J602">
-        <v>0</v>
-      </c>
-      <c r="K602">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="604" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J605">
-        <v>0.1</v>
-      </c>
-      <c r="K605">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="606" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J606">
-        <v>0.1</v>
-      </c>
-      <c r="K606">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="607" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J607">
-        <v>0</v>
-      </c>
-      <c r="K607">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="608" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J608">
-        <v>0</v>
-      </c>
-      <c r="K608">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="609" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J609">
-        <v>0.1</v>
-      </c>
-      <c r="K609">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="610" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J610">
-        <v>0</v>
-      </c>
-      <c r="K610">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="611" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J611">
-        <v>0</v>
-      </c>
-      <c r="K611">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="612" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J612">
-        <v>0.1</v>
-      </c>
-      <c r="K612">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="613" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J613">
-        <v>0.1</v>
-      </c>
-      <c r="K613">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="614" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J614">
-        <v>0</v>
-      </c>
-      <c r="K614">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="615" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J615">
-        <v>0</v>
-      </c>
-      <c r="K615">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="616" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J616">
-        <v>0.1</v>
-      </c>
-      <c r="K616">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="617" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J617">
-        <v>0.3</v>
-      </c>
-      <c r="K617">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="618" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J618">
-        <v>0.1</v>
-      </c>
-      <c r="K618">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="619" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J619">
-        <v>0.1</v>
-      </c>
-      <c r="K619">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="620" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J620">
-        <v>0.2</v>
-      </c>
-      <c r="K620">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="621" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J621">
-        <v>0.1</v>
-      </c>
-      <c r="K621">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="622" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J622">
-        <v>0.1</v>
-      </c>
-      <c r="K622">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="623" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J623">
-        <v>0.1</v>
-      </c>
-      <c r="K623">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="624" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J624">
-        <v>0.2</v>
-      </c>
-      <c r="K624">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="625" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J625">
-        <v>0.3</v>
-      </c>
-      <c r="K625">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="632" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J632">
-        <v>0</v>
-      </c>
-      <c r="K632">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="633" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J633">
-        <v>0</v>
-      </c>
-      <c r="K633">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="634" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J634">
-        <v>0</v>
-      </c>
-      <c r="K634">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="635" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J635">
-        <v>0</v>
-      </c>
-      <c r="K635">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="636" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J636">
-        <v>0</v>
-      </c>
-      <c r="K636">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="637" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J637">
-        <v>0</v>
-      </c>
-      <c r="K637">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="638" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J638">
-        <v>0</v>
-      </c>
-      <c r="K638">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="639" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J639">
-        <v>0.2</v>
-      </c>
-      <c r="K639">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="640" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J640">
-        <v>0.3</v>
-      </c>
-      <c r="K640">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="641" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J641">
-        <v>0.1</v>
-      </c>
-      <c r="K641">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="642" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J642">
-        <v>0</v>
-      </c>
-      <c r="K642">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="643" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J643">
-        <v>0</v>
-      </c>
-      <c r="K643">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="644" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J644">
-        <v>0</v>
-      </c>
-      <c r="K644">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="645" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J645">
-        <v>0</v>
-      </c>
-      <c r="K645">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="646" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J646">
-        <v>0</v>
-      </c>
-      <c r="K646">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="647" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J647">
-        <v>0</v>
-      </c>
-      <c r="K647">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="648" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J648">
-        <v>0</v>
-      </c>
-      <c r="K648">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="649" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J649">
-        <v>0</v>
-      </c>
-      <c r="K649">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="650" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J650">
-        <v>0</v>
-      </c>
-      <c r="K650">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="651" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J651">
-        <v>0</v>
-      </c>
-      <c r="K651">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="652" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J652">
-        <v>0</v>
-      </c>
-      <c r="K652">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="653" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J653">
-        <v>0</v>
-      </c>
-      <c r="K653">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="654" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J654">
-        <v>0.1</v>
-      </c>
-      <c r="K654">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="655" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J655">
-        <v>0.1</v>
-      </c>
-      <c r="K655">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="656" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J656">
-        <v>0</v>
-      </c>
-      <c r="K656">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="657" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K657">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="658" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K658">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="659" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K659">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="660" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K660">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="661" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K661">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="662" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="K662">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="663" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J663">
-        <v>0</v>
-      </c>
-      <c r="K663">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="664" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J664">
-        <v>-0.1</v>
-      </c>
-      <c r="K664">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="665" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J665">
-        <v>0.1</v>
-      </c>
-      <c r="K665">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="666" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J666">
-        <v>-0.1</v>
-      </c>
-      <c r="K666">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="667" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J667">
-        <v>-0.1</v>
-      </c>
-      <c r="K667">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="668" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J668">
-        <v>0</v>
-      </c>
-      <c r="K668">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="669" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J669">
-        <v>0</v>
-      </c>
-      <c r="K669">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="670" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J670">
-        <v>-0.1</v>
-      </c>
-      <c r="K670">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="671" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J671">
-        <v>0</v>
-      </c>
-      <c r="K671">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="672" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J672">
-        <v>0.2</v>
-      </c>
-      <c r="K672">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="673" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J673">
-        <v>0.2</v>
-      </c>
-      <c r="K673">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="674" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J674">
-        <v>0</v>
-      </c>
-      <c r="K674">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="675" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J675">
-        <v>0</v>
-      </c>
-      <c r="K675">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="676" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J676">
-        <v>0.1</v>
-      </c>
-      <c r="K676">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="677" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J677">
-        <v>0</v>
-      </c>
-      <c r="K677">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="678" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J678">
-        <v>0</v>
-      </c>
-      <c r="K678">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="679" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J679">
-        <v>0</v>
-      </c>
-      <c r="K679">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="680" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J680">
-        <v>0.4</v>
-      </c>
-      <c r="K680">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="681" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J681">
-        <v>0.2</v>
-      </c>
-      <c r="K681">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="682" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J682">
-        <v>0.4</v>
-      </c>
-      <c r="K682">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="683" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J683">
-        <v>0</v>
-      </c>
-      <c r="K683">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="684" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J684">
-        <v>0</v>
-      </c>
-      <c r="K684">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="685" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J685">
-        <v>0</v>
-      </c>
-      <c r="K685">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="686" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J686">
-        <v>0.3</v>
-      </c>
-      <c r="K686">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="687" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J687">
-        <v>0.4</v>
-      </c>
-      <c r="K687">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="688" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J688">
-        <v>0.5</v>
-      </c>
-      <c r="K688">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="689" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J689">
-        <v>0.2</v>
-      </c>
-      <c r="K689">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="690" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J690">
-        <v>0</v>
-      </c>
-      <c r="K690">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="691" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J691">
-        <v>0</v>
-      </c>
-      <c r="K691">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="692" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J692">
-        <v>0</v>
-      </c>
-      <c r="K692">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="693" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J693">
-        <v>0</v>
-      </c>
-      <c r="K693">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="695" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J695">
-        <v>0.1</v>
-      </c>
-      <c r="K695">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="696" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J696">
-        <v>0.1</v>
-      </c>
-      <c r="K696">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="697" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J697">
-        <v>0.1</v>
-      </c>
-      <c r="K697">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="698" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J698">
-        <v>0</v>
-      </c>
-      <c r="K698">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="699" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J699">
-        <v>0.1</v>
-      </c>
-      <c r="K699">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="700" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J700">
-        <v>0.1</v>
-      </c>
-      <c r="K700">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="701" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J701">
-        <v>0</v>
-      </c>
-      <c r="K701">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="702" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J702">
-        <v>0</v>
-      </c>
-      <c r="K702">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="703" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J703">
-        <v>0</v>
-      </c>
-      <c r="K703">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="704" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J704">
-        <v>0.1</v>
-      </c>
-      <c r="K704">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="705" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J705">
-        <v>0.1</v>
-      </c>
-      <c r="K705">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="706" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J706">
-        <v>0</v>
-      </c>
-      <c r="K706">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="707" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J707">
-        <v>0</v>
-      </c>
-      <c r="K707">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="708" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J708">
-        <v>0</v>
-      </c>
-      <c r="K708">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="709" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J709">
-        <v>0.1</v>
-      </c>
-      <c r="K709">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="710" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J710">
-        <v>0.1</v>
-      </c>
-      <c r="K710">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="711" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J711">
-        <v>0.4</v>
-      </c>
-      <c r="K711">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="712" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J712">
-        <v>0.4</v>
-      </c>
-      <c r="K712">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="713" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J713">
-        <v>0.4</v>
-      </c>
-      <c r="K713">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="714" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J714">
-        <v>0.9</v>
-      </c>
-      <c r="K714">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="715" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J715">
-        <v>0</v>
-      </c>
-      <c r="K715">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="716" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J716">
-        <v>0.2</v>
-      </c>
-      <c r="K716">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="717" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J717">
-        <v>1.4</v>
-      </c>
-      <c r="K717">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="718" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J718">
-        <v>0.6</v>
-      </c>
-      <c r="K718">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="719" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J719">
-        <v>0</v>
-      </c>
-      <c r="K719">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="720" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J720">
-        <v>0.1</v>
-      </c>
-      <c r="K720">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="721" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J721">
-        <v>0.1</v>
-      </c>
-      <c r="K721">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="722" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J722">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K722">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="723" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J723">
-        <v>0</v>
-      </c>
-      <c r="K723">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="724" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J724">
-        <v>0.1</v>
-      </c>
-      <c r="K724">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="725" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J725">
-        <v>0.6</v>
-      </c>
-      <c r="K725">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="726" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J726">
-        <v>0</v>
-      </c>
-      <c r="K726">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="727" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J727">
-        <v>0.2</v>
-      </c>
-      <c r="K727">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="728" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J728">
-        <v>0.6</v>
-      </c>
-      <c r="K728">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="729" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J729">
-        <v>0.1</v>
-      </c>
-      <c r="K729">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="730" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J730">
-        <v>0.1</v>
-      </c>
-      <c r="K730">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="731" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J731">
-        <v>0</v>
-      </c>
-      <c r="K731">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="732" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J732">
-        <v>0.1</v>
-      </c>
-      <c r="K732">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="733" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J733">
-        <v>0.1</v>
-      </c>
-      <c r="K733">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="734" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J734">
-        <v>0</v>
-      </c>
-      <c r="K734">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="735" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J735">
-        <v>0.8</v>
-      </c>
-      <c r="K735">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="736" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J736">
-        <v>0.7</v>
-      </c>
-      <c r="K736">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="737" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J737">
-        <v>0</v>
-      </c>
-      <c r="K737">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="738" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J738">
-        <v>0</v>
-      </c>
-      <c r="K738">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="739" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J739">
-        <v>0</v>
-      </c>
-      <c r="K739">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="740" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J740">
-        <v>0</v>
-      </c>
-      <c r="K740">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="741" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J741">
-        <v>0.1</v>
-      </c>
-      <c r="K741">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="742" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J742">
-        <v>0.8</v>
-      </c>
-      <c r="K742">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="743" spans="10:11" x14ac:dyDescent="0.4">
-      <c r="J743">
-        <v>0</v>
-      </c>
-      <c r="K743">
-        <v>2.4</v>
       </c>
     </row>
   </sheetData>
